--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Btla-Cd79a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Btla-Cd79a.xlsx
@@ -546,40 +546,40 @@
         <v>0.250293</v>
       </c>
       <c r="I2">
-        <v>0.06815187264964083</v>
+        <v>0.0134664339880133</v>
       </c>
       <c r="J2">
-        <v>0.06815187264964083</v>
+        <v>0.0134664339880133</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.5951063333333334</v>
+        <v>1.224187333333333</v>
       </c>
       <c r="N2">
-        <v>1.785319</v>
+        <v>3.672562</v>
       </c>
       <c r="O2">
-        <v>0.142614496182289</v>
+        <v>0.2801938168429309</v>
       </c>
       <c r="P2">
-        <v>0.142614496182289</v>
+        <v>0.2801938168429309</v>
       </c>
       <c r="Q2">
-        <v>0.04965031649633334</v>
+        <v>0.1021351734073333</v>
       </c>
       <c r="R2">
-        <v>0.446852848467</v>
+        <v>0.919216560666</v>
       </c>
       <c r="S2">
-        <v>0.00971944498180805</v>
+        <v>0.003773211538364817</v>
       </c>
       <c r="T2">
-        <v>0.009719444981808045</v>
+        <v>0.003773211538364818</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +608,10 @@
         <v>0.250293</v>
       </c>
       <c r="I3">
-        <v>0.06815187264964083</v>
+        <v>0.0134664339880133</v>
       </c>
       <c r="J3">
-        <v>0.06815187264964083</v>
+        <v>0.0134664339880133</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,13 +623,13 @@
         <v>1.640822333333333</v>
       </c>
       <c r="N3">
-        <v>4.922467</v>
+        <v>4.922466999999999</v>
       </c>
       <c r="O3">
-        <v>0.3932155268492318</v>
+        <v>0.3755538550508803</v>
       </c>
       <c r="P3">
-        <v>0.3932155268492317</v>
+        <v>0.3755538550508803</v>
       </c>
       <c r="Q3">
         <v>0.1368954480923333</v>
@@ -638,10 +638,10 @@
         <v>1.232059032831</v>
       </c>
       <c r="S3">
-        <v>0.02679837450969027</v>
+        <v>0.005057371197986595</v>
       </c>
       <c r="T3">
-        <v>0.02679837450969026</v>
+        <v>0.005057371197986595</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,40 +670,40 @@
         <v>0.250293</v>
       </c>
       <c r="I4">
-        <v>0.06815187264964083</v>
+        <v>0.0134664339880133</v>
       </c>
       <c r="J4">
-        <v>0.06815187264964083</v>
+        <v>0.0134664339880133</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.9191063333333332</v>
+        <v>0.254101</v>
       </c>
       <c r="N4">
-        <v>2.757319</v>
+        <v>0.762303</v>
       </c>
       <c r="O4">
-        <v>0.2202596062658006</v>
+        <v>0.05815901464994103</v>
       </c>
       <c r="P4">
-        <v>0.2202596062658006</v>
+        <v>0.05815901464994102</v>
       </c>
       <c r="Q4">
-        <v>0.07668196049633332</v>
+        <v>0.02119990053099999</v>
       </c>
       <c r="R4">
-        <v>0.6901376444669999</v>
+        <v>0.190799104779</v>
       </c>
       <c r="S4">
-        <v>0.01501110463608687</v>
+        <v>0.0007831945315913292</v>
       </c>
       <c r="T4">
-        <v>0.01501110463608687</v>
+        <v>0.0007831945315913292</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>0.250293</v>
       </c>
       <c r="I5">
-        <v>0.06815187264964083</v>
+        <v>0.0134664339880133</v>
       </c>
       <c r="J5">
-        <v>0.06815187264964083</v>
+        <v>0.0134664339880133</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.7139763333333334</v>
+        <v>0.8417103333333333</v>
       </c>
       <c r="N5">
-        <v>2.141929</v>
+        <v>2.525131</v>
       </c>
       <c r="O5">
-        <v>0.1711011450576811</v>
+        <v>0.192651912457409</v>
       </c>
       <c r="P5">
-        <v>0.171101145057681</v>
+        <v>0.192651912457409</v>
       </c>
       <c r="Q5">
-        <v>0.05956775946633334</v>
+        <v>0.07022473482033333</v>
       </c>
       <c r="R5">
-        <v>0.5361098351970001</v>
+        <v>0.6320226133829999</v>
       </c>
       <c r="S5">
-        <v>0.0116608634481788</v>
+        <v>0.002594334261772215</v>
       </c>
       <c r="T5">
-        <v>0.0116608634481788</v>
+        <v>0.002594334261772215</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,40 +794,40 @@
         <v>0.250293</v>
       </c>
       <c r="I6">
-        <v>0.06815187264964083</v>
+        <v>0.0134664339880133</v>
       </c>
       <c r="J6">
-        <v>0.06815187264964083</v>
+        <v>0.0134664339880133</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.3038206666666667</v>
+        <v>0.4082523333333333</v>
       </c>
       <c r="N6">
-        <v>0.911462</v>
+        <v>1.224757</v>
       </c>
       <c r="O6">
-        <v>0.07280922564499762</v>
+        <v>0.09344140099883881</v>
       </c>
       <c r="P6">
-        <v>0.07280922564499759</v>
+        <v>0.0934414009988388</v>
       </c>
       <c r="Q6">
-        <v>0.02534806204066667</v>
+        <v>0.03406090042233333</v>
       </c>
       <c r="R6">
-        <v>0.228132558366</v>
+        <v>0.3065481038009999</v>
       </c>
       <c r="S6">
-        <v>0.004962085073876841</v>
+        <v>0.001258322458298343</v>
       </c>
       <c r="T6">
-        <v>0.004962085073876838</v>
+        <v>0.001258322458298343</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>26</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.1983123333333333</v>
+        <v>4.699187666666667</v>
       </c>
       <c r="H7">
-        <v>0.5949369999999999</v>
+        <v>14.097563</v>
       </c>
       <c r="I7">
-        <v>0.1619944251679406</v>
+        <v>0.758486659760196</v>
       </c>
       <c r="J7">
-        <v>0.1619944251679406</v>
+        <v>0.758486659760196</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.5951063333333334</v>
+        <v>1.224187333333333</v>
       </c>
       <c r="N7">
-        <v>1.785319</v>
+        <v>3.672562</v>
       </c>
       <c r="O7">
-        <v>0.142614496182289</v>
+        <v>0.2801938168429309</v>
       </c>
       <c r="P7">
-        <v>0.142614496182289</v>
+        <v>0.2801938168429309</v>
       </c>
       <c r="Q7">
-        <v>0.1180169255447778</v>
+        <v>5.752686018489555</v>
       </c>
       <c r="R7">
-        <v>1.062152329903</v>
+        <v>51.77417416640601</v>
       </c>
       <c r="S7">
-        <v>0.02310275332966538</v>
+        <v>0.2125232722226548</v>
       </c>
       <c r="T7">
-        <v>0.02310275332966536</v>
+        <v>0.2125232722226548</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,22 +906,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.1983123333333333</v>
+        <v>4.699187666666667</v>
       </c>
       <c r="H8">
-        <v>0.5949369999999999</v>
+        <v>14.097563</v>
       </c>
       <c r="I8">
-        <v>0.1619944251679406</v>
+        <v>0.758486659760196</v>
       </c>
       <c r="J8">
-        <v>0.1619944251679406</v>
+        <v>0.758486659760196</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,25 +933,25 @@
         <v>1.640822333333333</v>
       </c>
       <c r="N8">
-        <v>4.922467</v>
+        <v>4.922466999999999</v>
       </c>
       <c r="O8">
-        <v>0.3932155268492318</v>
+        <v>0.3755538550508803</v>
       </c>
       <c r="P8">
-        <v>0.3932155268492317</v>
+        <v>0.3755538550508803</v>
       </c>
       <c r="Q8">
-        <v>0.3253953055087778</v>
+        <v>7.710532071991222</v>
       </c>
       <c r="R8">
-        <v>2.928557749579</v>
+        <v>69.39478864792099</v>
       </c>
       <c r="S8">
-        <v>0.06369872323905022</v>
+        <v>0.2848525890776071</v>
       </c>
       <c r="T8">
-        <v>0.06369872323905021</v>
+        <v>0.284852589077607</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.1983123333333333</v>
+        <v>4.699187666666667</v>
       </c>
       <c r="H9">
-        <v>0.5949369999999999</v>
+        <v>14.097563</v>
       </c>
       <c r="I9">
-        <v>0.1619944251679406</v>
+        <v>0.758486659760196</v>
       </c>
       <c r="J9">
-        <v>0.1619944251679406</v>
+        <v>0.758486659760196</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.9191063333333332</v>
+        <v>0.254101</v>
       </c>
       <c r="N9">
-        <v>2.757319</v>
+        <v>0.762303</v>
       </c>
       <c r="O9">
-        <v>0.2202596062658006</v>
+        <v>0.05815901464994103</v>
       </c>
       <c r="P9">
-        <v>0.2202596062658006</v>
+        <v>0.05815901464994102</v>
       </c>
       <c r="Q9">
-        <v>0.1822701215447777</v>
+        <v>1.194068285287667</v>
       </c>
       <c r="R9">
-        <v>1.640431093903</v>
+        <v>10.746614567589</v>
       </c>
       <c r="S9">
-        <v>0.03568082830474531</v>
+        <v>0.04411283675677807</v>
       </c>
       <c r="T9">
-        <v>0.0356808283047453</v>
+        <v>0.04411283675677807</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,22 +1030,22 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.1983123333333333</v>
+        <v>4.699187666666667</v>
       </c>
       <c r="H10">
-        <v>0.5949369999999999</v>
+        <v>14.097563</v>
       </c>
       <c r="I10">
-        <v>0.1619944251679406</v>
+        <v>0.758486659760196</v>
       </c>
       <c r="J10">
-        <v>0.1619944251679406</v>
+        <v>0.758486659760196</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.7139763333333334</v>
+        <v>0.8417103333333333</v>
       </c>
       <c r="N10">
-        <v>2.141929</v>
+        <v>2.525131</v>
       </c>
       <c r="O10">
-        <v>0.1711011450576811</v>
+        <v>0.192651912457409</v>
       </c>
       <c r="P10">
-        <v>0.171101145057681</v>
+        <v>0.192651912457409</v>
       </c>
       <c r="Q10">
-        <v>0.1415903126081111</v>
+        <v>3.955354817305889</v>
       </c>
       <c r="R10">
-        <v>1.274312813473</v>
+        <v>35.598193355753</v>
       </c>
       <c r="S10">
-        <v>0.02771743163919548</v>
+        <v>0.1461239055762339</v>
       </c>
       <c r="T10">
-        <v>0.02771743163919546</v>
+        <v>0.1461239055762338</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.1983123333333333</v>
+        <v>4.699187666666667</v>
       </c>
       <c r="H11">
-        <v>0.5949369999999999</v>
+        <v>14.097563</v>
       </c>
       <c r="I11">
-        <v>0.1619944251679406</v>
+        <v>0.758486659760196</v>
       </c>
       <c r="J11">
-        <v>0.1619944251679406</v>
+        <v>0.758486659760196</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.3038206666666667</v>
+        <v>0.4082523333333333</v>
       </c>
       <c r="N11">
-        <v>0.911462</v>
+        <v>1.224757</v>
       </c>
       <c r="O11">
-        <v>0.07280922564499762</v>
+        <v>0.09344140099883881</v>
       </c>
       <c r="P11">
-        <v>0.07280922564499759</v>
+        <v>0.0934414009988388</v>
       </c>
       <c r="Q11">
-        <v>0.06025138532155555</v>
+        <v>1.918454329687889</v>
       </c>
       <c r="R11">
-        <v>0.5422624678939999</v>
+        <v>17.266088967191</v>
       </c>
       <c r="S11">
-        <v>0.01179468865528427</v>
+        <v>0.0708740561269223</v>
       </c>
       <c r="T11">
-        <v>0.01179468865528427</v>
+        <v>0.07087405612692228</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,46 +1160,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.211968</v>
+        <v>0.1492686666666667</v>
       </c>
       <c r="H12">
-        <v>0.635904</v>
+        <v>0.447806</v>
       </c>
       <c r="I12">
-        <v>0.1731492627656275</v>
+        <v>0.02409316256721636</v>
       </c>
       <c r="J12">
-        <v>0.1731492627656275</v>
+        <v>0.02409316256721636</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.5951063333333334</v>
+        <v>1.224187333333333</v>
       </c>
       <c r="N12">
-        <v>1.785319</v>
+        <v>3.672562</v>
       </c>
       <c r="O12">
-        <v>0.142614496182289</v>
+        <v>0.2801938168429309</v>
       </c>
       <c r="P12">
-        <v>0.142614496182289</v>
+        <v>0.2801938168429309</v>
       </c>
       <c r="Q12">
-        <v>0.126143499264</v>
+        <v>0.1827328109968889</v>
       </c>
       <c r="R12">
-        <v>1.135291493376</v>
+        <v>1.644595298972</v>
       </c>
       <c r="S12">
-        <v>0.02469359487365475</v>
+        <v>0.00675075517952558</v>
       </c>
       <c r="T12">
-        <v>0.02469359487365474</v>
+        <v>0.006750755179525578</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.211968</v>
+        <v>0.1492686666666667</v>
       </c>
       <c r="H13">
-        <v>0.635904</v>
+        <v>0.447806</v>
       </c>
       <c r="I13">
-        <v>0.1731492627656275</v>
+        <v>0.02409316256721636</v>
       </c>
       <c r="J13">
-        <v>0.1731492627656275</v>
+        <v>0.02409316256721636</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,25 +1243,25 @@
         <v>1.640822333333333</v>
       </c>
       <c r="N13">
-        <v>4.922467</v>
+        <v>4.922466999999999</v>
       </c>
       <c r="O13">
-        <v>0.3932155268492318</v>
+        <v>0.3755538550508803</v>
       </c>
       <c r="P13">
-        <v>0.3932155268492317</v>
+        <v>0.3755538550508803</v>
       </c>
       <c r="Q13">
-        <v>0.347801828352</v>
+        <v>0.2449233619335556</v>
       </c>
       <c r="R13">
-        <v>3.130216455168</v>
+        <v>2.204310257402</v>
       </c>
       <c r="S13">
-        <v>0.0680849785819423</v>
+        <v>0.00904828008248567</v>
       </c>
       <c r="T13">
-        <v>0.06808497858194228</v>
+        <v>0.009048280082485666</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.211968</v>
+        <v>0.1492686666666667</v>
       </c>
       <c r="H14">
-        <v>0.635904</v>
+        <v>0.447806</v>
       </c>
       <c r="I14">
-        <v>0.1731492627656275</v>
+        <v>0.02409316256721636</v>
       </c>
       <c r="J14">
-        <v>0.1731492627656275</v>
+        <v>0.02409316256721636</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.9191063333333332</v>
+        <v>0.254101</v>
       </c>
       <c r="N14">
-        <v>2.757319</v>
+        <v>0.762303</v>
       </c>
       <c r="O14">
-        <v>0.2202596062658006</v>
+        <v>0.05815901464994103</v>
       </c>
       <c r="P14">
-        <v>0.2202596062658006</v>
+        <v>0.05815901464994102</v>
       </c>
       <c r="Q14">
-        <v>0.194821131264</v>
+        <v>0.03792931746866667</v>
       </c>
       <c r="R14">
-        <v>1.753390181376</v>
+        <v>0.341363857218</v>
       </c>
       <c r="S14">
-        <v>0.03813778844197077</v>
+        <v>0.001401234594710147</v>
       </c>
       <c r="T14">
-        <v>0.03813778844197076</v>
+        <v>0.001401234594710147</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.211968</v>
+        <v>0.1492686666666667</v>
       </c>
       <c r="H15">
-        <v>0.635904</v>
+        <v>0.447806</v>
       </c>
       <c r="I15">
-        <v>0.1731492627656275</v>
+        <v>0.02409316256721636</v>
       </c>
       <c r="J15">
-        <v>0.1731492627656275</v>
+        <v>0.02409316256721636</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.7139763333333334</v>
+        <v>0.8417103333333333</v>
       </c>
       <c r="N15">
-        <v>2.141929</v>
+        <v>2.525131</v>
       </c>
       <c r="O15">
-        <v>0.1711011450576811</v>
+        <v>0.192651912457409</v>
       </c>
       <c r="P15">
-        <v>0.171101145057681</v>
+        <v>0.192651912457409</v>
       </c>
       <c r="Q15">
-        <v>0.151340135424</v>
+        <v>0.1256409791762222</v>
       </c>
       <c r="R15">
-        <v>1.362061218816</v>
+        <v>1.130768812586</v>
       </c>
       <c r="S15">
-        <v>0.02962603712509218</v>
+        <v>0.004641593845721491</v>
       </c>
       <c r="T15">
-        <v>0.02962603712509217</v>
+        <v>0.004641593845721489</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.211968</v>
+        <v>0.1492686666666667</v>
       </c>
       <c r="H16">
-        <v>0.635904</v>
+        <v>0.447806</v>
       </c>
       <c r="I16">
-        <v>0.1731492627656275</v>
+        <v>0.02409316256721636</v>
       </c>
       <c r="J16">
-        <v>0.1731492627656275</v>
+        <v>0.02409316256721636</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.3038206666666667</v>
+        <v>0.4082523333333333</v>
       </c>
       <c r="N16">
-        <v>0.911462</v>
+        <v>1.224757</v>
       </c>
       <c r="O16">
-        <v>0.07280922564499762</v>
+        <v>0.09344140099883881</v>
       </c>
       <c r="P16">
-        <v>0.07280922564499759</v>
+        <v>0.0934414009988388</v>
       </c>
       <c r="Q16">
-        <v>0.064400259072</v>
+        <v>0.06093928146022222</v>
       </c>
       <c r="R16">
-        <v>0.579602331648</v>
+        <v>0.548453533142</v>
       </c>
       <c r="S16">
-        <v>0.01260686374296756</v>
+        <v>0.002251298864773477</v>
       </c>
       <c r="T16">
-        <v>0.01260686374296755</v>
+        <v>0.002251298864773476</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>26</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.730481</v>
+        <v>1.263591</v>
       </c>
       <c r="H17">
-        <v>2.191443</v>
+        <v>3.790773</v>
       </c>
       <c r="I17">
-        <v>0.5967044394167911</v>
+        <v>0.2039537436845743</v>
       </c>
       <c r="J17">
-        <v>0.596704439416791</v>
+        <v>0.2039537436845743</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.5951063333333334</v>
+        <v>1.224187333333333</v>
       </c>
       <c r="N17">
-        <v>1.785319</v>
+        <v>3.672562</v>
       </c>
       <c r="O17">
-        <v>0.142614496182289</v>
+        <v>0.2801938168429309</v>
       </c>
       <c r="P17">
-        <v>0.142614496182289</v>
+        <v>0.2801938168429309</v>
       </c>
       <c r="Q17">
-        <v>0.4347138694796667</v>
+        <v>1.546872096714</v>
       </c>
       <c r="R17">
-        <v>3.912424825317</v>
+        <v>13.921848870426</v>
       </c>
       <c r="S17">
-        <v>0.08509870299716087</v>
+        <v>0.05714657790238567</v>
       </c>
       <c r="T17">
-        <v>0.08509870299716081</v>
+        <v>0.05714657790238567</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>20</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.730481</v>
+        <v>1.263591</v>
       </c>
       <c r="H18">
-        <v>2.191443</v>
+        <v>3.790773</v>
       </c>
       <c r="I18">
-        <v>0.5967044394167911</v>
+        <v>0.2039537436845743</v>
       </c>
       <c r="J18">
-        <v>0.596704439416791</v>
+        <v>0.2039537436845743</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,25 +1553,25 @@
         <v>1.640822333333333</v>
       </c>
       <c r="N18">
-        <v>4.922467</v>
+        <v>4.922466999999999</v>
       </c>
       <c r="O18">
-        <v>0.3932155268492318</v>
+        <v>0.3755538550508803</v>
       </c>
       <c r="P18">
-        <v>0.3932155268492317</v>
+        <v>0.3755538550508803</v>
       </c>
       <c r="Q18">
-        <v>1.198589538875667</v>
+        <v>2.073328332999</v>
       </c>
       <c r="R18">
-        <v>10.787305849881</v>
+        <v>18.659954996991</v>
       </c>
       <c r="S18">
-        <v>0.234633450518549</v>
+        <v>0.076595614692801</v>
       </c>
       <c r="T18">
-        <v>0.2346334505185489</v>
+        <v>0.07659561469280099</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>21</v>
       </c>
       <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.263591</v>
+      </c>
+      <c r="H19">
+        <v>3.790773</v>
+      </c>
+      <c r="I19">
+        <v>0.2039537436845743</v>
+      </c>
+      <c r="J19">
+        <v>0.2039537436845743</v>
+      </c>
+      <c r="K19">
         <v>2</v>
       </c>
-      <c r="F19">
+      <c r="L19">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G19">
-        <v>0.730481</v>
-      </c>
-      <c r="H19">
-        <v>2.191443</v>
-      </c>
-      <c r="I19">
-        <v>0.5967044394167911</v>
-      </c>
-      <c r="J19">
-        <v>0.596704439416791</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
       <c r="M19">
-        <v>0.9191063333333332</v>
+        <v>0.254101</v>
       </c>
       <c r="N19">
-        <v>2.757319</v>
+        <v>0.762303</v>
       </c>
       <c r="O19">
-        <v>0.2202596062658006</v>
+        <v>0.05815901464994103</v>
       </c>
       <c r="P19">
-        <v>0.2202596062658006</v>
+        <v>0.05815901464994102</v>
       </c>
       <c r="Q19">
-        <v>0.6713897134796667</v>
+        <v>0.321079736691</v>
       </c>
       <c r="R19">
-        <v>6.042507421317</v>
+        <v>2.889717630219</v>
       </c>
       <c r="S19">
-        <v>0.1314298848829977</v>
+        <v>0.01186174876686147</v>
       </c>
       <c r="T19">
-        <v>0.1314298848829976</v>
+        <v>0.01186174876686147</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,22 +1650,22 @@
         <v>22</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.730481</v>
+        <v>1.263591</v>
       </c>
       <c r="H20">
-        <v>2.191443</v>
+        <v>3.790773</v>
       </c>
       <c r="I20">
-        <v>0.5967044394167911</v>
+        <v>0.2039537436845743</v>
       </c>
       <c r="J20">
-        <v>0.596704439416791</v>
+        <v>0.2039537436845743</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.7139763333333334</v>
+        <v>0.8417103333333333</v>
       </c>
       <c r="N20">
-        <v>2.141929</v>
+        <v>2.525131</v>
       </c>
       <c r="O20">
-        <v>0.1711011450576811</v>
+        <v>0.192651912457409</v>
       </c>
       <c r="P20">
-        <v>0.171101145057681</v>
+        <v>0.192651912457409</v>
       </c>
       <c r="Q20">
-        <v>0.5215461459496668</v>
+        <v>1.063577601807</v>
       </c>
       <c r="R20">
-        <v>4.693915313547</v>
+        <v>9.572198416263001</v>
       </c>
       <c r="S20">
-        <v>0.1020968128452146</v>
+        <v>0.03929207877368143</v>
       </c>
       <c r="T20">
-        <v>0.1020968128452146</v>
+        <v>0.03929207877368143</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>23</v>
       </c>
       <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.263591</v>
+      </c>
+      <c r="H21">
+        <v>3.790773</v>
+      </c>
+      <c r="I21">
+        <v>0.2039537436845743</v>
+      </c>
+      <c r="J21">
+        <v>0.2039537436845743</v>
+      </c>
+      <c r="K21">
         <v>2</v>
       </c>
-      <c r="F21">
+      <c r="L21">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G21">
-        <v>0.730481</v>
-      </c>
-      <c r="H21">
-        <v>2.191443</v>
-      </c>
-      <c r="I21">
-        <v>0.5967044394167911</v>
-      </c>
-      <c r="J21">
-        <v>0.596704439416791</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
       <c r="M21">
-        <v>0.3038206666666667</v>
+        <v>0.4082523333333333</v>
       </c>
       <c r="N21">
-        <v>0.911462</v>
+        <v>1.224757</v>
       </c>
       <c r="O21">
-        <v>0.07280922564499762</v>
+        <v>0.09344140099883881</v>
       </c>
       <c r="P21">
-        <v>0.07280922564499759</v>
+        <v>0.0934414009988388</v>
       </c>
       <c r="Q21">
-        <v>0.2219352244073333</v>
+        <v>0.515863974129</v>
       </c>
       <c r="R21">
-        <v>1.997417019666</v>
+        <v>4.642775767161</v>
       </c>
       <c r="S21">
-        <v>0.04344558817286895</v>
+        <v>0.01905772354884469</v>
       </c>
       <c r="T21">
-        <v>0.04344558817286893</v>
+        <v>0.01905772354884469</v>
       </c>
     </row>
   </sheetData>
